--- a/D_e-나라지표_인기지표_조사/Result/e-나라지표_인기지표_목록_20241127.xlsx
+++ b/D_e-나라지표_인기지표_조사/Result/e-나라지표_인기지표_목록_20241127.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\D_e-나라지표_인기지표_조사\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBF6047-36D6-4F3C-9875-2526AF69D662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53114DB4-7E8E-4857-83B7-69F5721094D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목록" sheetId="1" r:id="rId1"/>
@@ -1002,7 +1002,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,6 +1034,7 @@
       <sz val="18"/>
       <color indexed="62"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1044,13 +1045,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1111,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1134,14 +1128,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{CE733E28-F727-4E47-BA1C-D8528522B5DB}"/>
-    <cellStyle name="표준 3" xfId="2" xr:uid="{388ACEC5-7C7A-4C20-A322-DE58C0A6591D}"/>
+    <cellStyle name="표준 3" xfId="2" xr:uid="{C13845BD-27FF-415A-ACE8-1448EDD2A542}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1176,7 +1167,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB340D3-5D6D-4A81-971C-A163C00F287C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE55BA4-7678-400A-B07D-BBBE391035DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1225,7 +1216,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64AE0E4A-794E-498C-A88B-DC22873F0030}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BBC32B-D120-49CF-90A4-22B710889FDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,7 +1265,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1B044D-3968-4053-8701-972C5DA3C7E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DE86DD-3499-4E9C-AD22-5A038815B901}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1314,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3583B68C-FEB6-4546-8FC1-CF41F11CE836}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E495804C-BA20-43D1-8F81-F501AE17123B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5367968-9ED0-47D2-B6D7-B0BA98EE7173}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD050A05-7EC5-4FF5-9368-5256AEC91A8F}">
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2345,13 +2336,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AB5E2F-F181-41C9-AE33-7DF9062BBFD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F002634F-22EF-4BD6-BFC0-99955DC1B841}">
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2365,7 +2355,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>157</v>
       </c>
       <c r="B1"/>
@@ -2945,7 +2935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7374A7-3412-4031-AD6E-8E521C78AD5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01601A37-609F-4309-BA20-100FADCA83F7}">
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2959,7 +2949,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>214</v>
       </c>
       <c r="B1"/>
@@ -3284,7 +3274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA1CC4D-ABE4-4DA5-B94A-8CAB08668AFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AD03B0-FD72-4C9E-8239-AD56FF338371}">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3298,7 +3288,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B1"/>

--- a/D_e-나라지표_인기지표_조사/Result/e-나라지표_인기지표_목록_20241127.xlsx
+++ b/D_e-나라지표_인기지표_조사/Result/e-나라지표_인기지표_목록_20241127.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\D_e-나라지표_인기지표_조사\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53114DB4-7E8E-4857-83B7-69F5721094D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F870B30-E162-44C2-8C9B-65C46BD5E9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1105,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1114,6 +1114,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1132,7 +1135,7 @@
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{CE733E28-F727-4E47-BA1C-D8528522B5DB}"/>
-    <cellStyle name="표준 3" xfId="2" xr:uid="{C13845BD-27FF-415A-ACE8-1448EDD2A542}"/>
+    <cellStyle name="표준 3" xfId="2" xr:uid="{1B9D7EEB-B954-4C2F-8393-C8F11B56ED9B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1167,7 +1170,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE55BA4-7678-400A-B07D-BBBE391035DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378CB3D3-6ED0-490C-BCE4-01DBEF0BF041}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1216,7 +1219,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BBC32B-D120-49CF-90A4-22B710889FDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A9C657-ED98-4CEE-AE41-920CF3CD3168}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1265,7 +1268,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DE86DD-3499-4E9C-AD22-5A038815B901}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A972D9-8C5A-4A99-B9B0-C2764E3139AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1314,7 +1317,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E495804C-BA20-43D1-8F81-F501AE17123B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E1C7E9-633C-47C1-B5D6-332B2C6E642D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1606,15 +1609,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="52.5" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="52.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1672,6 +1676,86 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1681,7 +1765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD050A05-7EC5-4FF5-9368-5256AEC91A8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C808ED-A01F-4FAC-AB3F-78677BA35421}">
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1690,12 +1774,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="24.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B1"/>
@@ -1727,611 +1811,611 @@
       <c r="M2"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="M31" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="M32" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="M36" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="L37" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="M37" s="8" t="s">
+      <c r="M37" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
     </row>
     <row r="48" spans="1:13" ht="231" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
     </row>
     <row r="49" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
     </row>
     <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2341,7 +2425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F002634F-22EF-4BD6-BFC0-99955DC1B841}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D88FB2-1F8B-4702-93AE-D7BF1CD15C5D}">
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2350,12 +2434,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="22.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B1"/>
@@ -2387,545 +2471,545 @@
       <c r="M2"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="9" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="9" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="L37" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
     </row>
     <row r="46" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
     </row>
     <row r="50" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="6" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2935,7 +3019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01601A37-609F-4309-BA20-100FADCA83F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A182BD6-47D5-4553-86C4-F88F329E36D9}">
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2944,12 +3028,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="21.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B1"/>
@@ -2981,290 +3065,290 @@
       <c r="M2"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="9" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="9" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
     </row>
     <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3274,7 +3358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AD03B0-FD72-4C9E-8239-AD56FF338371}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A57C08-EC66-4D69-B303-044077AC3868}">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3283,12 +3367,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="28.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B1"/>
@@ -3320,359 +3404,359 @@
       <c r="M2"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="N30" s="8" t="s">
+      <c r="N30" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="M31" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="N31" s="8" t="s">
+      <c r="N31" s="9" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
     </row>
     <row r="40" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
     </row>
     <row r="44" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/D_e-나라지표_인기지표_조사/Result/e-나라지표_인기지표_목록_20241127.xlsx
+++ b/D_e-나라지표_인기지표_조사/Result/e-나라지표_인기지표_목록_20241127.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\D_e-나라지표_인기지표_조사\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F870B30-E162-44C2-8C9B-65C46BD5E9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDFF2C5-9193-4B21-8591-995E7029D494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1135,7 +1135,7 @@
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{CE733E28-F727-4E47-BA1C-D8528522B5DB}"/>
-    <cellStyle name="표준 3" xfId="2" xr:uid="{1B9D7EEB-B954-4C2F-8393-C8F11B56ED9B}"/>
+    <cellStyle name="표준 3" xfId="2" xr:uid="{90272667-1CB1-49AB-B6DD-4F930D30D421}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1170,7 +1170,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378CB3D3-6ED0-490C-BCE4-01DBEF0BF041}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51A1B2C-8A37-445E-A226-D1489C5B1638}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1219,7 +1219,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A9C657-ED98-4CEE-AE41-920CF3CD3168}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75C9388-7238-4AC5-A705-C95F1F20EA31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1268,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A972D9-8C5A-4A99-B9B0-C2764E3139AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD3EA70-AE59-4F26-B2A5-3F398AEA863F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1317,7 +1317,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E1C7E9-633C-47C1-B5D6-332B2C6E642D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BFD0048-C15E-4045-A775-227B603B31A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C808ED-A01F-4FAC-AB3F-78677BA35421}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAADA51-7A4A-4BC9-BA68-A26ED83810E8}">
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2425,7 +2425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D88FB2-1F8B-4702-93AE-D7BF1CD15C5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC75546-3E3D-4DDD-AD22-943D348EA5B5}">
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3019,7 +3019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A182BD6-47D5-4553-86C4-F88F329E36D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349EA62F-2041-497F-BBC3-9D23CBC98392}">
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3358,7 +3358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A57C08-EC66-4D69-B303-044077AC3868}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937BC0EB-A33E-47F9-801E-5BD78A5B7D92}">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/D_e-나라지표_인기지표_조사/Result/e-나라지표_인기지표_목록_20241127.xlsx
+++ b/D_e-나라지표_인기지표_조사/Result/e-나라지표_인기지표_목록_20241127.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\D_e-나라지표_인기지표_조사\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDFF2C5-9193-4B21-8591-995E7029D494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E61009-2A59-46B9-B71A-4D8FF429632D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="1635" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목록" sheetId="1" r:id="rId1"/>
@@ -1135,7 +1135,7 @@
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{CE733E28-F727-4E47-BA1C-D8528522B5DB}"/>
-    <cellStyle name="표준 3" xfId="2" xr:uid="{90272667-1CB1-49AB-B6DD-4F930D30D421}"/>
+    <cellStyle name="표준 3" xfId="2" xr:uid="{FE694EAD-4B7F-4C85-BCC7-CEB8715B09F5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1170,7 +1170,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51A1B2C-8A37-445E-A226-D1489C5B1638}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C9A2DDB-94F9-4549-9006-C6E8AF45FA56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1219,7 +1219,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75C9388-7238-4AC5-A705-C95F1F20EA31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEAEAE56-720A-4938-A0AB-09FF94D17671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1268,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FD3EA70-AE59-4F26-B2A5-3F398AEA863F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6C0415-0E17-4603-8DF2-A332252EB9B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1317,7 +1317,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BFD0048-C15E-4045-A775-227B603B31A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F8D6EB7-07E5-4891-8AA4-E5586FD8DC5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -1765,7 +1765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAADA51-7A4A-4BC9-BA68-A26ED83810E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A029E9B-3F2D-4619-8E99-1B59AFD55C53}">
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2425,7 +2425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC75546-3E3D-4DDD-AD22-943D348EA5B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73788D8E-9B07-457B-858C-EFD27D6CFF99}">
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3019,7 +3019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349EA62F-2041-497F-BBC3-9D23CBC98392}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BB3AE-ADFA-4D2F-B235-F7C70483411A}">
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3358,7 +3358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937BC0EB-A33E-47F9-801E-5BD78A5B7D92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253D9DF3-B8A4-470B-B409-7968C15C25A4}">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/D_e-나라지표_인기지표_조사/Result/e-나라지표_인기지표_목록_20241127.xlsx
+++ b/D_e-나라지표_인기지표_조사/Result/e-나라지표_인기지표_목록_20241127.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\D_e-나라지표_인기지표_조사\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E61009-2A59-46B9-B71A-4D8FF429632D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC88808E-8BDE-4C3E-8DF1-23D4B1A571D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="1635" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11280" yWindow="-16410" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목록" sheetId="1" r:id="rId1"/>
@@ -1135,7 +1135,7 @@
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{CE733E28-F727-4E47-BA1C-D8528522B5DB}"/>
-    <cellStyle name="표준 3" xfId="2" xr:uid="{FE694EAD-4B7F-4C85-BCC7-CEB8715B09F5}"/>
+    <cellStyle name="표준 3" xfId="2" xr:uid="{391503D7-094B-48A1-92D3-230FE203A968}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1170,7 +1170,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C9A2DDB-94F9-4549-9006-C6E8AF45FA56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71888E70-D4E6-42D4-8673-6CE47EB6F1E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1219,7 +1219,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEAEAE56-720A-4938-A0AB-09FF94D17671}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7C21A6-E34F-48BD-9122-688193D8E9BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1268,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6C0415-0E17-4603-8DF2-A332252EB9B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965E7500-D306-4A41-8BDB-246398AB8986}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1317,7 +1317,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F8D6EB7-07E5-4891-8AA4-E5586FD8DC5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40A1EE8-2FCA-48FC-862D-1A8797664734}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A029E9B-3F2D-4619-8E99-1B59AFD55C53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F3C80A-DF17-4F9E-A0CF-555190296B95}">
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2425,7 +2425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73788D8E-9B07-457B-858C-EFD27D6CFF99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA52F5D-60E0-4D3B-A7FE-C97AE74FC24D}">
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3019,7 +3019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BB3AE-ADFA-4D2F-B235-F7C70483411A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D67BABB-CC46-4022-96C4-3E202A6775AB}">
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3358,7 +3358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253D9DF3-B8A4-470B-B409-7968C15C25A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5371538C-2FF6-431B-B457-C33A65808175}">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
